--- a/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DMS_Sprint4.xlsx
+++ b/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DMS_Sprint4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -853,9 +853,6 @@
 Câu hỏi được tạo được chuyển vào danh sách Available của bộ từ điển</t>
   </si>
   <si>
-    <t>Số lượng testcase block: 2 (chiếm 2%)</t>
-  </si>
-  <si>
     <t>Thực hiện đưa câu hỏi vào từ điển từ danh sách đã trả lời</t>
   </si>
   <si>
@@ -889,15 +886,6 @@
     <t>Số lượng testcase passed đạt mức 76% phù hợp với chỉ tiêu đặt ra ở mức NORMAL(&lt;80%).</t>
   </si>
   <si>
-    <t>Số lượng testcase failed: 20 (chiếm 22%)</t>
-  </si>
-  <si>
-    <t>Số lượng Testcase: 94</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed: 72 (chiếm 76%)</t>
-  </si>
-  <si>
     <t>Câu hỏi được chuyển vào danh sách drop Hiển thị thông báo Hạ câu hỏi thành công</t>
   </si>
   <si>
@@ -1138,6 +1126,18 @@
   </si>
   <si>
     <t>TC.28.2</t>
+  </si>
+  <si>
+    <t>Số lượng Testcase: 38</t>
+  </si>
+  <si>
+    <t>Số lượng testcase passed: 38 (chiếm 100%)</t>
+  </si>
+  <si>
+    <t>Số lượng testcase failed: 0 (chiếm 0%)</t>
+  </si>
+  <si>
+    <t>Số lượng testcase block: 0 (chiếm 0%)</t>
   </si>
 </sst>
 </file>
@@ -1712,6 +1712,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1747,18 +1759,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1988,6 +1988,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2208,7 +2209,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2532,6 +2535,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3690,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="72" t="s">
@@ -3705,7 +3709,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="72" t="s">
@@ -3720,7 +3724,7 @@
         <v>1.2</v>
       </c>
       <c r="D20" s="71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="72" t="s">
@@ -3735,7 +3739,7 @@
         <v>1.3</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="72" t="s">
@@ -3750,7 +3754,7 @@
         <v>1.4</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="72" t="s">
@@ -3765,7 +3769,7 @@
         <v>1.5</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="72" t="s">
@@ -4037,7 +4041,7 @@
         <v>105</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D7" s="42"/>
     </row>
@@ -4051,7 +4055,7 @@
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>104</v>
@@ -4091,7 +4095,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>120</v>
@@ -4157,7 +4161,7 @@
         <v>146</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D19" s="42"/>
     </row>
@@ -4174,10 +4178,10 @@
         <v>130</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" s="42"/>
     </row>
@@ -4186,7 +4190,7 @@
         <v>137</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>228</v>
@@ -4311,7 +4315,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
@@ -4322,10 +4326,10 @@
         <v>196</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D35" s="42"/>
     </row>
@@ -4358,7 +4362,7 @@
   </sheetPr>
   <dimension ref="A2:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
@@ -4376,13 +4380,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="53">
         <f>COUNTIF(I11:I76,"&gt;a0")</f>
         <v>35</v>
@@ -4392,11 +4396,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="90"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="53">
         <f>SUM(D5:D6)</f>
         <v>35</v>
@@ -4406,55 +4410,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="53">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="91" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="53">
         <f>COUNTIF(H11:H76,"Passed")</f>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="91" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="53">
         <f>COUNTIF(H12:H74,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="53">
         <f>COUNTIF(H12:H74,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="54">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -4528,7 +4532,7 @@
         <v>174</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>90</v>
@@ -4570,13 +4574,13 @@
         <v>164</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>106</v>
@@ -4597,13 +4601,13 @@
         <v>165</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H16" s="40" t="s">
         <v>106</v>
@@ -4624,13 +4628,13 @@
         <v>166</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H17" s="40" t="s">
         <v>106</v>
@@ -4651,13 +4655,13 @@
         <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H18" s="40" t="s">
         <v>106</v>
@@ -4678,13 +4682,13 @@
         <v>182</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>106</v>
@@ -4709,7 +4713,7 @@
     </row>
     <row r="21" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C21" s="59" t="s">
         <v>104</v>
@@ -4724,7 +4728,7 @@
     </row>
     <row r="22" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C22" s="46">
         <v>51</v>
@@ -4751,7 +4755,7 @@
     </row>
     <row r="23" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="45" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C23" s="46">
         <v>52</v>
@@ -4778,7 +4782,7 @@
     </row>
     <row r="24" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B24" s="45" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C24" s="46">
         <v>53</v>
@@ -4805,7 +4809,7 @@
     </row>
     <row r="25" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="33" t="s">
@@ -4898,7 +4902,7 @@
     </row>
     <row r="30" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>120</v>
@@ -4913,7 +4917,7 @@
     </row>
     <row r="31" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B31" s="45" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C31" s="46">
         <v>57</v>
@@ -4940,7 +4944,7 @@
     </row>
     <row r="32" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C32" s="46">
         <v>58</v>
@@ -4967,7 +4971,7 @@
     </row>
     <row r="33" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B33" s="45" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C33" s="46">
         <v>59</v>
@@ -5022,7 +5026,7 @@
     </row>
     <row r="36" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="33" t="s">
@@ -5047,7 +5051,7 @@
     </row>
     <row r="37" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B37" s="45" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="33" t="s">
@@ -5100,7 +5104,7 @@
     </row>
     <row r="40" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="45" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="33" t="s">
@@ -5125,7 +5129,7 @@
     </row>
     <row r="41" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="45" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="33" t="s">
@@ -5178,7 +5182,7 @@
     </row>
     <row r="44" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="45" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="33" t="s">
@@ -5203,14 +5207,14 @@
     </row>
     <row r="45" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F45" s="45" t="s">
         <v>90</v>
@@ -5228,14 +5232,14 @@
     </row>
     <row r="46" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B46" s="45" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F46" s="45" t="s">
         <v>90</v>
@@ -5253,7 +5257,7 @@
     </row>
     <row r="47" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="45" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="33" t="s">
@@ -5294,7 +5298,7 @@
         <v>130</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="49"/>
@@ -5306,20 +5310,20 @@
     </row>
     <row r="50" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B50" s="45" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="33" t="s">
         <v>200</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F50" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H50" s="40" t="s">
         <v>106</v>
@@ -5334,7 +5338,7 @@
         <v>137</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="49"/>
@@ -5353,13 +5357,13 @@
         <v>200</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H52" s="40" t="s">
         <v>106</v>
@@ -5403,16 +5407,16 @@
       </c>
       <c r="C55" s="45"/>
       <c r="D55" s="45" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F55" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H55" s="40" t="s">
         <v>106</v>
@@ -5598,7 +5602,7 @@
         <v>90</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H65" s="40" t="s">
         <v>106</v>
@@ -5610,7 +5614,7 @@
     </row>
     <row r="66" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B66" s="45" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C66" s="45"/>
       <c r="D66" s="33" t="s">
@@ -5623,7 +5627,7 @@
         <v>90</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H66" s="40" t="s">
         <v>106</v>
@@ -5635,7 +5639,7 @@
     </row>
     <row r="67" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B67" s="45" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C67" s="45"/>
       <c r="D67" s="33" t="s">
@@ -5648,7 +5652,7 @@
         <v>90</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H67" s="40" t="s">
         <v>106</v>
@@ -5704,16 +5708,16 @@
       </c>
       <c r="C70" s="45"/>
       <c r="D70" s="33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F70" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H70" s="40" t="s">
         <v>106</v>
@@ -5729,16 +5733,16 @@
       </c>
       <c r="C71" s="45"/>
       <c r="D71" s="33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F71" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H71" s="40" t="s">
         <v>106</v>
@@ -5778,7 +5782,7 @@
     </row>
     <row r="74" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B74" s="45" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C74" s="45"/>
       <c r="D74" s="33" t="s">
@@ -5803,7 +5807,7 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C75" s="60"/>
       <c r="D75" s="60"/>
@@ -5819,7 +5823,7 @@
         <v>196</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="44"/>
@@ -5830,152 +5834,144 @@
       <c r="J76" s="44"/>
     </row>
     <row r="77" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B77" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="C77" s="80"/>
-      <c r="D77" s="83" t="s">
+      <c r="B77" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" s="84"/>
+      <c r="D77" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="45"/>
+      <c r="H77" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="J77" s="45"/>
+    </row>
+    <row r="78" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B78" s="88"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="85"/>
+      <c r="G78" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="H78" s="91"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="45"/>
+    </row>
+    <row r="79" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B79" s="88"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="F79" s="85"/>
+      <c r="G79" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="H79" s="91"/>
+      <c r="I79" s="82"/>
+      <c r="J79" s="45"/>
+    </row>
+    <row r="80" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="89"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="E77" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="F77" s="80" t="s">
+      <c r="F80" s="86"/>
+      <c r="G80" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="H80" s="92"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="45"/>
+    </row>
+    <row r="81" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B81" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" s="84"/>
+      <c r="D81" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="F81" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="G77" s="45"/>
-      <c r="H77" s="86" t="s">
+      <c r="G81" s="45"/>
+      <c r="H81" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="I77" s="77" t="s">
+      <c r="I81" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="J77" s="45"/>
-    </row>
-    <row r="78" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="84"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F78" s="81"/>
-      <c r="G78" s="45" t="s">
+      <c r="J81" s="45"/>
+    </row>
+    <row r="82" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B82" s="88"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" s="85"/>
+      <c r="G82" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="H78" s="87"/>
-      <c r="I78" s="78"/>
-      <c r="J78" s="45"/>
-    </row>
-    <row r="79" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="84"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F79" s="81"/>
-      <c r="G79" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="H79" s="87"/>
-      <c r="I79" s="78"/>
-      <c r="J79" s="45"/>
-    </row>
-    <row r="80" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="85"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="F80" s="82"/>
-      <c r="G80" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="H80" s="88"/>
-      <c r="I80" s="79"/>
-      <c r="J80" s="45"/>
-    </row>
-    <row r="81" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B81" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="C81" s="80"/>
-      <c r="D81" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="F81" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="45"/>
-      <c r="H81" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="I81" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="J81" s="45"/>
-    </row>
-    <row r="82" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="84"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F82" s="81"/>
-      <c r="G82" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="H82" s="87"/>
-      <c r="I82" s="78"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="82"/>
       <c r="J82" s="45"/>
     </row>
     <row r="83" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="84"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="84"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="88"/>
       <c r="E83" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F83" s="81"/>
+        <v>269</v>
+      </c>
+      <c r="F83" s="85"/>
       <c r="G83" s="53">
         <v>123456</v>
       </c>
-      <c r="H83" s="87"/>
-      <c r="I83" s="78"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="82"/>
       <c r="J83" s="45"/>
     </row>
     <row r="84" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B84" s="85"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="85"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="89"/>
       <c r="E84" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="F84" s="82"/>
+        <v>270</v>
+      </c>
+      <c r="F84" s="86"/>
       <c r="G84" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="H84" s="88"/>
-      <c r="I84" s="79"/>
+        <v>286</v>
+      </c>
+      <c r="H84" s="92"/>
+      <c r="I84" s="83"/>
       <c r="J84" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J74"/>
   <mergeCells count="20">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="I81:I84"/>
     <mergeCell ref="F77:F80"/>
     <mergeCell ref="F81:F84"/>
@@ -5988,6 +5984,14 @@
     <mergeCell ref="D77:D80"/>
     <mergeCell ref="H77:H80"/>
     <mergeCell ref="I77:I80"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="H22:H25 H15:H18 H55 H65:H67 H69:H71">
     <cfRule type="containsText" dxfId="23" priority="170" operator="containsText" text="Not Applicable">
@@ -6112,8 +6116,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6123,22 +6127,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6146,7 +6150,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6157,7 +6161,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6165,7 +6169,7 @@
     </row>
     <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L13" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
